--- a/KiCad to Mouser.xlsx
+++ b/KiCad to Mouser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27792" windowHeight="12528"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="425">
   <si>
     <t>895-FT4232HL</t>
   </si>
@@ -168,9 +168,6 @@
     <t>530-0ZCG0110AF2C</t>
   </si>
   <si>
-    <t>576-SD15C-01FTG</t>
-  </si>
-  <si>
     <t>621-B320A-F</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>530-142-0701-801, 2</t>
   </si>
   <si>
-    <t>538-22-28-5023, 5</t>
-  </si>
-  <si>
     <t>538-47553-1001, 1</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>571-5-146130-2, 1</t>
   </si>
   <si>
-    <t>576-SD15C-01FTG, 1</t>
-  </si>
-  <si>
     <t>579-93LC46BISN, 1</t>
   </si>
   <si>
@@ -399,9 +390,6 @@
     <t>71-CRCW0603-0-E3, 7</t>
   </si>
   <si>
-    <t>71-CRCW0603-1.0K-E3, 9</t>
-  </si>
-  <si>
     <t>71-CRCW0603-10.5k-E3, 3</t>
   </si>
   <si>
@@ -447,9 +435,6 @@
     <t>71-CRCW0603-4.7K-E3, 1</t>
   </si>
   <si>
-    <t>71-CRCW0603-47k-E3, 7</t>
-  </si>
-  <si>
     <t>71-CRCW0603-6.2K-E3, 1</t>
   </si>
   <si>
@@ -474,9 +459,6 @@
     <t>77-VJ0603A331FXXCB, 3</t>
   </si>
   <si>
-    <t>77-VJ0603Y103KXACBC, 4</t>
-  </si>
-  <si>
     <t>77-VJ0603Y561KXACBC, 3</t>
   </si>
   <si>
@@ -532,6 +514,783 @@
   </si>
   <si>
     <t>LM339ADR, 1</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>511-SMBJ16A</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>523-UE27AC5410H</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>R76</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R85</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>R63</t>
+  </si>
+  <si>
+    <t>R78</t>
+  </si>
+  <si>
+    <t>R82</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R73</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R87</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R79</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>R75</t>
+  </si>
+  <si>
+    <t>R65</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R94</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R91</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R90</t>
+  </si>
+  <si>
+    <t>R95</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>R74</t>
+  </si>
+  <si>
+    <t>R89</t>
+  </si>
+  <si>
+    <t>R88</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>R80</t>
+  </si>
+  <si>
+    <t>R83</t>
+  </si>
+  <si>
+    <t>R92</t>
+  </si>
+  <si>
+    <t>R93</t>
+  </si>
+  <si>
+    <t>R96</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>80-CBR06C470J5G</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>FB2</t>
+  </si>
+  <si>
+    <t>FB4</t>
+  </si>
+  <si>
+    <t>FB5</t>
+  </si>
+  <si>
+    <t>FB6</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>511-SMBJ16A, 1</t>
+  </si>
+  <si>
+    <t>523-UE27AC5410H, 1</t>
+  </si>
+  <si>
+    <t>538-22-28-5023, 4</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-1.0K-E3, 8</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-47k-E3, 11</t>
+  </si>
+  <si>
+    <t>77-VJ0603Y103KXACBC, 5</t>
+  </si>
+  <si>
+    <t>80-CBR06C470J5G, 2</t>
   </si>
 </sst>
 </file>
@@ -547,21 +1306,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -569,25 +1322,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,25 +1629,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I244"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I86"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
       </c>
       <c r="C2">
         <f>IF(B2=B1,C1+1,1)</f>
@@ -922,12 +1665,15 @@
         <v>402-SLG59M1440V, 4</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
       </c>
       <c r="C3">
         <f>IF(B3=B2,C2+1,1)</f>
@@ -942,12 +1688,15 @@
         <v/>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="2">IF(B4=B3,C3+1,1)</f>
@@ -962,12 +1711,15 @@
         <v/>
       </c>
       <c r="I4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>61</v>
+      <c r="B5" t="s">
+        <v>60</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
@@ -982,11 +1734,14 @@
         <v/>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
@@ -1002,12 +1757,15 @@
         <v>504-KR-5R5C104-R, 1</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -1022,11 +1780,14 @@
         <v>506-FSMSM, 1</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8">
@@ -1042,11 +1803,14 @@
         <v>511-ESDA19SC6, 2</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9">
@@ -1062,12 +1826,15 @@
         <v/>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -1075,23 +1842,26 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>512-2N7002K, 7</v>
+        <v>511-SMBJ16A, 1</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1099,19 +1869,22 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>512-2N7002K, 7</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1122,16 +1895,19 @@
         <v/>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -1142,16 +1918,19 @@
         <v/>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -1162,16 +1941,19 @@
         <v/>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -1182,16 +1964,19 @@
         <v/>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1202,36 +1987,42 @@
         <v/>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>512-BSS84, 4</v>
+        <v/>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -1239,19 +2030,22 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>512-BSS84, 4</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -1262,16 +2056,19 @@
         <v/>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1282,32 +2079,38 @@
         <v/>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>517-929852-01-10-RA, 1</v>
+        <v/>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -1319,15 +2122,18 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>530-0ZCC0125FF2C, 1</v>
+        <v>517-929852-01-10-RA, 1</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
@@ -1339,15 +2145,18 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>530-0ZCG0110AF2C, 1</v>
+        <v>523-UE27AC5410H, 1</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
@@ -1355,39 +2164,45 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>530-142-0701-801, 2</v>
+        <v>530-0ZCC0125FF2C, 1</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>530-0ZCG0110AF2C, 1</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -1395,19 +2210,22 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>538-22-28-5023, 5</v>
+        <v>530-142-0701-801, 2</v>
       </c>
       <c r="I26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -1415,99 +2233,114 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>538-22-28-5023, 4</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
-        <v>538-47553-1001, 1</v>
+        <v/>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
@@ -1519,15 +2352,18 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
-        <v>556-ATXMEGA16A4U-AU, 1</v>
+        <v>538-47553-1001, 1</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -1539,15 +2375,18 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
-        <v>571-146130-3, 1</v>
+        <v>556-ATXMEGA16A4U-AU, 1</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -1555,23 +2394,26 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
-        <v>571-3828118, 4</v>
+        <v>571-146130-3, 1</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1579,19 +2421,22 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>571-3828118, 4</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -1602,16 +2447,19 @@
         <v/>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -1622,32 +2470,38 @@
         <v/>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
-        <v>571-5-146130-2, 1</v>
+        <v/>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -1659,14 +2513,17 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
-        <v>576-SD15C-01FTG, 1</v>
+        <v>571-5-146130-2, 1</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="C40">
@@ -1682,11 +2539,14 @@
         <v>579-93LC46BISN, 1</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
         <v>24</v>
       </c>
       <c r="C41">
@@ -1702,12 +2562,15 @@
         <v>579-MCP2551-I/SN, 1</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
@@ -1722,12 +2585,15 @@
         <v>579-USB2422/MJ, 1</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
@@ -1742,12 +2608,15 @@
         <v>581-06035A221J, 1</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
@@ -1762,12 +2631,15 @@
         <v>581-12063C475KAT2A, 3</v>
       </c>
       <c r="I44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
@@ -1782,12 +2654,15 @@
         <v/>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
@@ -1802,12 +2677,15 @@
         <v/>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
@@ -1822,12 +2700,15 @@
         <v>584-ADXL345BCCZ-R7, 1</v>
       </c>
       <c r="I47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -1842,12 +2723,15 @@
         <v>603-CC126KKX7R7BB106, 4</v>
       </c>
       <c r="I48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
@@ -1862,12 +2746,15 @@
         <v/>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -1882,12 +2769,15 @@
         <v/>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -1902,11 +2792,14 @@
         <v/>
       </c>
       <c r="I51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
         <v>44</v>
       </c>
       <c r="C52">
@@ -1922,11 +2815,14 @@
         <v>603-CC603KRX7R7BB105, 8</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
         <v>44</v>
       </c>
       <c r="C53">
@@ -1942,11 +2838,14 @@
         <v/>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
         <v>44</v>
       </c>
       <c r="C54">
@@ -1962,11 +2861,14 @@
         <v/>
       </c>
       <c r="I54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" t="s">
         <v>44</v>
       </c>
       <c r="C55">
@@ -1982,11 +2884,14 @@
         <v/>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
         <v>44</v>
       </c>
       <c r="C56">
@@ -2002,11 +2907,14 @@
         <v/>
       </c>
       <c r="I56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" t="s">
         <v>44</v>
       </c>
       <c r="C57">
@@ -2022,11 +2930,14 @@
         <v/>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" t="s">
         <v>44</v>
       </c>
       <c r="C58">
@@ -2042,11 +2953,14 @@
         <v/>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" t="s">
         <v>44</v>
       </c>
       <c r="C59">
@@ -2062,11 +2976,14 @@
         <v/>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60">
@@ -2082,11 +2999,14 @@
         <v>603-RC1210FR-07510RL, 2</v>
       </c>
       <c r="I60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61">
@@ -2102,12 +3022,15 @@
         <v/>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -2122,11 +3045,14 @@
         <v>621-B320A-F, 1</v>
       </c>
       <c r="I62" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
         <v>35</v>
       </c>
       <c r="C63">
@@ -2142,12 +3068,15 @@
         <v>621-MMBT3906-F, 1</v>
       </c>
       <c r="I63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -2162,12 +3091,15 @@
         <v>621-SBR3U30P1-7, 3</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -2182,12 +3114,15 @@
         <v/>
       </c>
       <c r="I65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -2202,11 +3137,14 @@
         <v/>
       </c>
       <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" t="s">
         <v>20</v>
       </c>
       <c r="C67">
@@ -2222,11 +3160,14 @@
         <v>649-77313-824-20LF, 1</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" t="s">
         <v>40</v>
       </c>
       <c r="C68">
@@ -2242,12 +3183,15 @@
         <v>649-D09P13B4PA00LF, 1</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
       </c>
       <c r="C69">
         <f t="shared" si="5"/>
@@ -2262,12 +3206,15 @@
         <v>652-SRP4020TA-100M, 1</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
       </c>
       <c r="C70">
         <f t="shared" si="5"/>
@@ -2282,12 +3229,15 @@
         <v>652-SRP4020TA-5R6M, 2</v>
       </c>
       <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
       </c>
       <c r="C71">
         <f t="shared" si="5"/>
@@ -2302,11 +3252,14 @@
         <v/>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s">
         <v>43</v>
       </c>
       <c r="C72">
@@ -2322,12 +3275,15 @@
         <v>653-A6TN-1104, 1</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>239</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
       </c>
       <c r="C73">
         <f t="shared" si="5"/>
@@ -2342,12 +3298,15 @@
         <v>656-DX4R005JJ2R1800, 1</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
       </c>
       <c r="C74">
         <f t="shared" si="5"/>
@@ -2362,12 +3321,15 @@
         <v>667-EEE-FT1V101AP, 1</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" t="s">
+        <v>57</v>
       </c>
       <c r="C75">
         <f t="shared" si="5"/>
@@ -2382,12 +3344,15 @@
         <v>701-XRP6124ESTR0.5-F, 3</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
       </c>
       <c r="C76">
         <f t="shared" si="5"/>
@@ -2402,12 +3367,15 @@
         <v/>
       </c>
       <c r="I76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
       </c>
       <c r="C77">
         <f t="shared" si="5"/>
@@ -2422,12 +3390,15 @@
         <v/>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
       </c>
       <c r="C78">
         <f t="shared" si="5"/>
@@ -2442,11 +3413,14 @@
         <v>710-150080BS75000, 1</v>
       </c>
       <c r="I78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79">
@@ -2462,11 +3436,14 @@
         <v>710-875105244013, 2</v>
       </c>
       <c r="I79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" t="s">
         <v>18</v>
       </c>
       <c r="C80">
@@ -2482,11 +3459,14 @@
         <v/>
       </c>
       <c r="I80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81">
@@ -2505,8 +3485,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82">
@@ -2525,8 +3508,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83">
@@ -2545,8 +3531,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84">
@@ -2562,11 +3551,14 @@
         <v/>
       </c>
       <c r="I84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85">
@@ -2582,11 +3574,14 @@
         <v/>
       </c>
       <c r="I85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86">
@@ -2602,11 +3597,14 @@
         <v/>
       </c>
       <c r="I86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87">
@@ -2625,8 +3623,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" t="s">
         <v>23</v>
       </c>
       <c r="C88">
@@ -2635,18 +3636,21 @@
       </c>
       <c r="D88">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-1.0K-E3, 9</v>
+        <v>71-CRCW0603-1.0K-E3, 8</v>
       </c>
       <c r="I88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89">
@@ -2655,18 +3659,21 @@
       </c>
       <c r="D89">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>256</v>
+      </c>
+      <c r="B90" t="s">
         <v>23</v>
       </c>
       <c r="C90">
@@ -2675,18 +3682,21 @@
       </c>
       <c r="D90">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91">
@@ -2695,18 +3705,21 @@
       </c>
       <c r="D91">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" t="s">
         <v>23</v>
       </c>
       <c r="C92">
@@ -2715,18 +3728,21 @@
       </c>
       <c r="D92">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93">
@@ -2735,18 +3751,21 @@
       </c>
       <c r="D93">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94">
@@ -2755,18 +3774,21 @@
       </c>
       <c r="D94">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95">
@@ -2775,43 +3797,49 @@
       </c>
       <c r="D95">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
       </c>
       <c r="C96">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71-CRCW0603-10.5k-E3, 3</v>
       </c>
       <c r="I96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
       </c>
       <c r="C97">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
@@ -2819,19 +3847,22 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-10.5k-E3, 3</v>
+        <v/>
       </c>
       <c r="I97" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>264</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
       </c>
       <c r="C98">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
@@ -2842,36 +3873,42 @@
         <v/>
       </c>
       <c r="I98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>265</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
       </c>
       <c r="C99">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71-CRCW0603-100-E3, 2</v>
       </c>
       <c r="I99" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" t="s">
         <v>26</v>
       </c>
       <c r="C100">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
@@ -2879,35 +3916,41 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-100-E3, 2</v>
+        <v/>
       </c>
       <c r="I100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>46</v>
       </c>
       <c r="C101">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71-CRCW0603-100K-E3, 1</v>
       </c>
       <c r="I101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
       </c>
       <c r="C102">
         <f t="shared" si="5"/>
@@ -2915,23 +3958,26 @@
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-100K-E3, 1</v>
+        <v>71-CRCW0603-10K-E3, 22</v>
       </c>
       <c r="I102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <f t="shared" si="3"/>
@@ -2939,19 +3985,22 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-10K-E3, 22</v>
+        <v/>
       </c>
       <c r="I103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
         <v>3</v>
       </c>
       <c r="C104">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
         <f t="shared" si="3"/>
@@ -2962,16 +4011,19 @@
         <v/>
       </c>
       <c r="I104" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <f t="shared" si="3"/>
@@ -2982,16 +4034,19 @@
         <v/>
       </c>
       <c r="I105" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>272</v>
+      </c>
+      <c r="B106" t="s">
         <v>3</v>
       </c>
       <c r="C106">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
@@ -3002,16 +4057,19 @@
         <v/>
       </c>
       <c r="I106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+      <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="C107">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
@@ -3022,16 +4080,19 @@
         <v/>
       </c>
       <c r="I107" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" t="s">
         <v>3</v>
       </c>
       <c r="C108">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
@@ -3042,16 +4103,19 @@
         <v/>
       </c>
       <c r="I108" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>275</v>
+      </c>
+      <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
@@ -3062,16 +4126,19 @@
         <v/>
       </c>
       <c r="I109" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
@@ -3082,16 +4149,19 @@
         <v/>
       </c>
       <c r="I110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <f t="shared" si="3"/>
@@ -3102,16 +4172,19 @@
         <v/>
       </c>
       <c r="I111" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" t="s">
         <v>3</v>
       </c>
       <c r="C112">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
@@ -3122,16 +4195,19 @@
         <v/>
       </c>
       <c r="I112" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>279</v>
+      </c>
+      <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <f t="shared" si="3"/>
@@ -3142,16 +4218,19 @@
         <v/>
       </c>
       <c r="I113" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>280</v>
+      </c>
+      <c r="B114" t="s">
         <v>3</v>
       </c>
       <c r="C114">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <f t="shared" si="3"/>
@@ -3162,16 +4241,19 @@
         <v/>
       </c>
       <c r="I114" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>281</v>
+      </c>
+      <c r="B115" t="s">
         <v>3</v>
       </c>
       <c r="C115">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115">
         <f t="shared" si="3"/>
@@ -3182,16 +4264,19 @@
         <v/>
       </c>
       <c r="I115" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>282</v>
+      </c>
+      <c r="B116" t="s">
         <v>3</v>
       </c>
       <c r="C116">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
@@ -3202,16 +4287,19 @@
         <v/>
       </c>
       <c r="I116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <f t="shared" si="3"/>
@@ -3222,16 +4310,19 @@
         <v/>
       </c>
       <c r="I117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" t="s">
         <v>3</v>
       </c>
       <c r="C118">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118">
         <f t="shared" si="3"/>
@@ -3242,16 +4333,19 @@
         <v/>
       </c>
       <c r="I118" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <f t="shared" si="3"/>
@@ -3262,16 +4356,19 @@
         <v/>
       </c>
       <c r="I119" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <f t="shared" si="3"/>
@@ -3282,16 +4379,19 @@
         <v/>
       </c>
       <c r="I120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>287</v>
+      </c>
+      <c r="B121" t="s">
         <v>3</v>
       </c>
       <c r="C121">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D121">
         <f t="shared" si="3"/>
@@ -3302,16 +4402,19 @@
         <v/>
       </c>
       <c r="I121" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D122">
         <f t="shared" si="3"/>
@@ -3322,16 +4425,19 @@
         <v/>
       </c>
       <c r="I122" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123">
         <f t="shared" si="3"/>
@@ -3342,32 +4448,38 @@
         <v/>
       </c>
       <c r="I123" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
       </c>
       <c r="C124">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71-CRCW0603-120-E3, 1</v>
       </c>
       <c r="I124" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
       </c>
       <c r="C125">
         <f t="shared" si="5"/>
@@ -3375,23 +4487,26 @@
       </c>
       <c r="D125">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-120-E3, 1</v>
+        <v>71-CRCW0603-12K-E3, 2</v>
       </c>
       <c r="I125" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>292</v>
+      </c>
+      <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <f t="shared" si="3"/>
@@ -3399,39 +4514,45 @@
       </c>
       <c r="E126" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-12K-E3, 2</v>
+        <v/>
       </c>
       <c r="I126" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>7</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
       </c>
       <c r="C127">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>71-CRCW0603-2.0k-E3, 6</v>
       </c>
       <c r="I127" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" t="s">
+        <v>66</v>
       </c>
       <c r="C128">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <f t="shared" si="3"/>
@@ -3439,19 +4560,22 @@
       </c>
       <c r="E128" t="str">
         <f t="shared" si="4"/>
-        <v>71-CRCW0603-2.0k-E3, 6</v>
+        <v/>
       </c>
       <c r="I128" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" t="s">
+        <v>66</v>
       </c>
       <c r="C129">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
         <f t="shared" si="3"/>
@@ -3462,16 +4586,19 @@
         <v/>
       </c>
       <c r="I129" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>296</v>
+      </c>
+      <c r="B130" t="s">
+        <v>66</v>
       </c>
       <c r="C130">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130">
         <f t="shared" si="3"/>
@@ -3482,16 +4609,19 @@
         <v/>
       </c>
       <c r="I130" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>297</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
       </c>
       <c r="C131">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="6">IF(C132&gt;C131,D132,C131)</f>
@@ -3502,16 +4632,19 @@
         <v/>
       </c>
       <c r="I131" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>298</v>
+      </c>
+      <c r="B132" t="s">
+        <v>66</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" si="8">IF(B132=B131,C131+1,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132">
         <f t="shared" si="6"/>
@@ -3522,36 +4655,42 @@
         <v/>
       </c>
       <c r="I132" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>299</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
       </c>
       <c r="C133">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>71-CRCW0603-2.2K-E3, 5</v>
       </c>
       <c r="I133" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>300</v>
+      </c>
+      <c r="B134" t="s">
         <v>37</v>
       </c>
       <c r="C134">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <f t="shared" si="6"/>
@@ -3559,19 +4698,22 @@
       </c>
       <c r="E134" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-2.2K-E3, 5</v>
+        <v/>
       </c>
       <c r="I134" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" t="s">
         <v>37</v>
       </c>
       <c r="C135">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135">
         <f t="shared" si="6"/>
@@ -3582,16 +4724,19 @@
         <v/>
       </c>
       <c r="I135" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>302</v>
+      </c>
+      <c r="B136" t="s">
         <v>37</v>
       </c>
       <c r="C136">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136">
         <f t="shared" si="6"/>
@@ -3602,16 +4747,19 @@
         <v/>
       </c>
       <c r="I136" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" t="s">
         <v>37</v>
       </c>
       <c r="C137">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <f t="shared" si="6"/>
@@ -3622,16 +4770,19 @@
         <v/>
       </c>
       <c r="I137" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
       </c>
       <c r="C138">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <f t="shared" si="6"/>
@@ -3639,19 +4790,22 @@
       </c>
       <c r="E138" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>71-CRCW0603-22.1-E3, 5</v>
       </c>
       <c r="I138" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>305</v>
+      </c>
+      <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <f t="shared" si="6"/>
@@ -3659,19 +4813,22 @@
       </c>
       <c r="E139" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-22.1-E3, 5</v>
+        <v/>
       </c>
       <c r="I139" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
         <f t="shared" si="6"/>
@@ -3682,16 +4839,19 @@
         <v/>
       </c>
       <c r="I140" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>307</v>
+      </c>
+      <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D141">
         <f t="shared" si="6"/>
@@ -3702,16 +4862,19 @@
         <v/>
       </c>
       <c r="I141" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>308</v>
+      </c>
+      <c r="B142" t="s">
         <v>11</v>
       </c>
       <c r="C142">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <f t="shared" si="6"/>
@@ -3722,32 +4885,38 @@
         <v/>
       </c>
       <c r="I142" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>309</v>
+      </c>
+      <c r="B143" t="s">
+        <v>81</v>
       </c>
       <c r="C143">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>71-CRCW0603-220-E3, 1</v>
       </c>
       <c r="I143" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
       </c>
       <c r="C144">
         <f t="shared" si="8"/>
@@ -3759,15 +4928,18 @@
       </c>
       <c r="E144" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-220-E3, 1</v>
+        <v>71-CRCW0603-22K-E3, 1</v>
       </c>
       <c r="I144" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="2" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" t="s">
+        <v>31</v>
       </c>
       <c r="C145">
         <f t="shared" si="8"/>
@@ -3779,15 +4951,18 @@
       </c>
       <c r="E145" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-22K-E3, 1</v>
+        <v>71-CRCW0603-240-E3, 1</v>
       </c>
       <c r="I145" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" t="s">
+        <v>83</v>
       </c>
       <c r="C146">
         <f t="shared" si="8"/>
@@ -3795,23 +4970,26 @@
       </c>
       <c r="D146">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-240-E3, 1</v>
+        <v>71-CRCW0603-330-E3, 2</v>
       </c>
       <c r="I146" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" t="s">
+        <v>83</v>
       </c>
       <c r="C147">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <f t="shared" si="6"/>
@@ -3819,35 +4997,41 @@
       </c>
       <c r="E147" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-330-E3, 2</v>
+        <v/>
       </c>
       <c r="I147" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
       </c>
       <c r="C148">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>71-CRCW0603-374-E3, 1</v>
       </c>
       <c r="I148" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>315</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
       </c>
       <c r="C149">
         <f t="shared" si="8"/>
@@ -3859,15 +5043,18 @@
       </c>
       <c r="E149" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-374-E3, 1</v>
+        <v>71-CRCW0603-4.7K-E3, 1</v>
       </c>
       <c r="I149" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" t="s">
+        <v>67</v>
       </c>
       <c r="C150">
         <f t="shared" si="8"/>
@@ -3875,219 +5062,252 @@
       </c>
       <c r="D150">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-4.7K-E3, 1</v>
+        <v>71-CRCW0603-47k-E3, 11</v>
       </c>
       <c r="I150" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>317</v>
+      </c>
+      <c r="B151" t="s">
+        <v>67</v>
       </c>
       <c r="C151">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-47k-E3, 7</v>
+        <v/>
       </c>
       <c r="I151" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
       </c>
       <c r="C152">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I152" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
       </c>
       <c r="C153">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I153" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154" t="s">
+        <v>79</v>
       </c>
       <c r="C154">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I154" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+      <c r="B155" t="s">
+        <v>79</v>
       </c>
       <c r="C155">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I155" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s">
+        <v>79</v>
       </c>
       <c r="C156">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I156" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" t="s">
+        <v>79</v>
       </c>
       <c r="C157">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I157" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" t="s">
+        <v>79</v>
       </c>
       <c r="C158">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D158">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-6.2K-E3, 1</v>
+        <v/>
       </c>
       <c r="I158" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s">
+        <v>79</v>
       </c>
       <c r="C159">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-62K-E3, 1</v>
+        <v/>
       </c>
       <c r="I159" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>79</v>
       </c>
       <c r="C160">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D160">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-8.2K-E3, 1</v>
+        <v/>
       </c>
       <c r="I160" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" t="s">
+        <v>69</v>
       </c>
       <c r="C161">
         <f t="shared" si="8"/>
@@ -4099,15 +5319,18 @@
       </c>
       <c r="E161" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-8.87K-E3, 1</v>
+        <v>71-CRCW0603-6.2K-E3, 1</v>
       </c>
       <c r="I161" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162" t="s">
+        <v>38</v>
       </c>
       <c r="C162">
         <f t="shared" si="8"/>
@@ -4119,15 +5342,18 @@
       </c>
       <c r="E162" t="str">
         <f t="shared" si="7"/>
-        <v>71-CRCW0603-866-E3, 1</v>
+        <v>71-CRCW0603-62K-E3, 1</v>
       </c>
       <c r="I162" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
       </c>
       <c r="C163">
         <f t="shared" si="8"/>
@@ -4135,39 +5361,45 @@
       </c>
       <c r="D163">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="7"/>
-        <v>720-LSR976-NR-1, 2</v>
+        <v>71-CRCW0603-8.2K-E3, 1</v>
       </c>
       <c r="I163" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" t="s">
+        <v>29</v>
       </c>
       <c r="C164">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>71-CRCW0603-8.87K-E3, 1</v>
       </c>
       <c r="I164" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
       </c>
       <c r="C165">
         <f t="shared" si="8"/>
@@ -4175,23 +5407,26 @@
       </c>
       <c r="D165">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="7"/>
-        <v>771-74HC595D-Q100, 2</v>
+        <v>71-CRCW0603-866-E3, 1</v>
       </c>
       <c r="I165" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
         <v>78</v>
       </c>
       <c r="C166">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
         <f t="shared" si="6"/>
@@ -4199,75 +5434,87 @@
       </c>
       <c r="E166" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>720-LSR976-NR-1, 2</v>
       </c>
       <c r="I166" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>333</v>
+      </c>
+      <c r="B167" t="s">
+        <v>78</v>
       </c>
       <c r="C167">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="7"/>
-        <v>77-VJ0603A331FXXCB, 3</v>
+        <v/>
       </c>
       <c r="I167" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>77</v>
       </c>
       <c r="C168">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>771-74HC595D-Q100, 2</v>
       </c>
       <c r="I168" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" t="s">
+        <v>77</v>
       </c>
       <c r="C169">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I169" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
       </c>
       <c r="C170">
         <f t="shared" si="8"/>
@@ -4275,19 +5522,22 @@
       </c>
       <c r="D170">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="7"/>
-        <v>77-VJ0603Y103KXACBC, 4</v>
+        <v>77-VJ0603A331FXXCB, 3</v>
       </c>
       <c r="I170" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
       </c>
       <c r="C171">
         <f t="shared" si="8"/>
@@ -4295,19 +5545,22 @@
       </c>
       <c r="D171">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I171" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
       </c>
       <c r="C172">
         <f t="shared" si="8"/>
@@ -4315,119 +5568,137 @@
       </c>
       <c r="D172">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I172" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
         <v>17</v>
       </c>
       <c r="C173">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>77-VJ0603Y103KXACBC, 5</v>
       </c>
       <c r="I173" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
       </c>
       <c r="C174">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="7"/>
-        <v>77-VJ0603Y561KXACBC, 3</v>
+        <v/>
       </c>
       <c r="I174" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>341</v>
+      </c>
+      <c r="B175" t="s">
+        <v>17</v>
       </c>
       <c r="C175">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I175" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
       </c>
       <c r="C176">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I176" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>343</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
       </c>
       <c r="C177">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="7"/>
-        <v>80-C0603C331J5G, 1</v>
+        <v/>
       </c>
       <c r="I177" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" t="s">
+        <v>25</v>
       </c>
       <c r="C178">
         <f t="shared" si="8"/>
@@ -4435,19 +5706,22 @@
       </c>
       <c r="D178">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="7"/>
-        <v>810-C1608X7R1E104K, 27</v>
+        <v>77-VJ0603Y561KXACBC, 3</v>
       </c>
       <c r="I178" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
       </c>
       <c r="C179">
         <f t="shared" si="8"/>
@@ -4455,19 +5729,22 @@
       </c>
       <c r="D179">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I179" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>346</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
       </c>
       <c r="C180">
         <f t="shared" si="8"/>
@@ -4475,83 +5752,95 @@
       </c>
       <c r="D180">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I180" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+      <c r="B181" t="s">
+        <v>52</v>
       </c>
       <c r="C181">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>80-C0603C331J5G, 1</v>
       </c>
       <c r="I181" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>348</v>
+      </c>
+      <c r="B182" t="s">
+        <v>349</v>
       </c>
       <c r="C182">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D182">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>80-CBR06C470J5G, 2</v>
       </c>
       <c r="I182" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>350</v>
+      </c>
+      <c r="B183" t="s">
+        <v>349</v>
       </c>
       <c r="C183">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D183">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I183" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <f t="shared" si="6"/>
@@ -4559,19 +5848,22 @@
       </c>
       <c r="E184" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>810-C1608X7R1E104K, 27</v>
       </c>
       <c r="I184" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>352</v>
+      </c>
+      <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D185">
         <f t="shared" si="6"/>
@@ -4582,16 +5874,19 @@
         <v/>
       </c>
       <c r="I185" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>353</v>
+      </c>
+      <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D186">
         <f t="shared" si="6"/>
@@ -4602,16 +5897,19 @@
         <v/>
       </c>
       <c r="I186" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>354</v>
+      </c>
+      <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D187">
         <f t="shared" si="6"/>
@@ -4622,16 +5920,19 @@
         <v/>
       </c>
       <c r="I187" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D188">
         <f t="shared" si="6"/>
@@ -4642,16 +5943,19 @@
         <v/>
       </c>
       <c r="I188" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D189">
         <f t="shared" si="6"/>
@@ -4662,16 +5966,19 @@
         <v/>
       </c>
       <c r="I189" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <f t="shared" si="6"/>
@@ -4682,16 +5989,19 @@
         <v/>
       </c>
       <c r="I190" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D191">
         <f t="shared" si="6"/>
@@ -4702,16 +6012,19 @@
         <v/>
       </c>
       <c r="I191" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>359</v>
+      </c>
+      <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <f t="shared" si="6"/>
@@ -4722,16 +6035,19 @@
         <v/>
       </c>
       <c r="I192" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>360</v>
+      </c>
+      <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <f t="shared" si="6"/>
@@ -4742,16 +6058,19 @@
         <v/>
       </c>
       <c r="I193" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>361</v>
+      </c>
+      <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D194">
         <f t="shared" si="6"/>
@@ -4762,16 +6081,19 @@
         <v/>
       </c>
       <c r="I194" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>362</v>
+      </c>
+      <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D244" si="9">IF(C196&gt;C195,D196,C195)</f>
@@ -4782,16 +6104,19 @@
         <v/>
       </c>
       <c r="I195" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>363</v>
+      </c>
+      <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C244" si="11">IF(B196=B195,C195+1,1)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D196">
         <f t="shared" si="9"/>
@@ -4802,16 +6127,19 @@
         <v/>
       </c>
       <c r="I196" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>364</v>
+      </c>
+      <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D197">
         <f t="shared" si="9"/>
@@ -4822,16 +6150,19 @@
         <v/>
       </c>
       <c r="I197" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>365</v>
+      </c>
+      <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D198">
         <f t="shared" si="9"/>
@@ -4842,16 +6173,19 @@
         <v/>
       </c>
       <c r="I198" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <f t="shared" si="9"/>
@@ -4862,16 +6196,19 @@
         <v/>
       </c>
       <c r="I199" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>367</v>
+      </c>
+      <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D200">
         <f t="shared" si="9"/>
@@ -4882,16 +6219,19 @@
         <v/>
       </c>
       <c r="I200" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B201" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>368</v>
+      </c>
+      <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D201">
         <f t="shared" si="9"/>
@@ -4902,16 +6242,19 @@
         <v/>
       </c>
       <c r="I201" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>369</v>
+      </c>
+      <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D202">
         <f t="shared" si="9"/>
@@ -4922,16 +6265,19 @@
         <v/>
       </c>
       <c r="I202" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>370</v>
+      </c>
+      <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <f t="shared" si="9"/>
@@ -4942,16 +6288,19 @@
         <v/>
       </c>
       <c r="I203" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>371</v>
+      </c>
+      <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D204">
         <f t="shared" si="9"/>
@@ -4962,132 +6311,153 @@
         <v/>
       </c>
       <c r="I204" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>372</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D205">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="10"/>
-        <v>810-MPZ1608S221ATA00, 6</v>
+        <v/>
       </c>
       <c r="I205" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>373</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
       </c>
       <c r="C206">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D206">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I206" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>374</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
       </c>
       <c r="C207">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D207">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I207" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B208" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>375</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
       </c>
       <c r="C208">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D208">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I208" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>376</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
       </c>
       <c r="C209">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D209">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I209" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>377</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
       </c>
       <c r="C210">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D210">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I210" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="1" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>378</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
       </c>
       <c r="C211">
         <f t="shared" si="11"/>
@@ -5095,159 +6465,183 @@
       </c>
       <c r="D211">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="10"/>
-        <v>815-APAMPS-106, 1</v>
+        <v>810-MPZ1608S221ATA00, 6</v>
       </c>
       <c r="I211" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>379</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
       </c>
       <c r="C212">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="10"/>
-        <v>815-AWSCR-12.00CV-T, 1</v>
+        <v/>
       </c>
       <c r="I212" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>380</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
       </c>
       <c r="C213">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="10"/>
-        <v>815-AWSCR-16.00MTD-T, 1</v>
+        <v/>
       </c>
       <c r="I213" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>381</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
       </c>
       <c r="C214">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D214">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="10"/>
-        <v>815-AWSCR-24.00MTD-T, 1</v>
+        <v/>
       </c>
       <c r="I214" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>382</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
       </c>
       <c r="C215">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="10"/>
-        <v>81-LQG18HN47NJ00D, 4</v>
+        <v/>
       </c>
       <c r="I215" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="2" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>383</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
       </c>
       <c r="C216">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D216">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I216" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>384</v>
+      </c>
+      <c r="B217" t="s">
+        <v>16</v>
       </c>
       <c r="C217">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>815-APAMPS-106, 1</v>
       </c>
       <c r="I217" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="2" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>385</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
       </c>
       <c r="C218">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>815-AWSCR-12.00CV-T, 1</v>
       </c>
       <c r="I218" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>386</v>
+      </c>
+      <c r="B219" t="s">
+        <v>42</v>
       </c>
       <c r="C219">
         <f t="shared" si="11"/>
@@ -5255,43 +6649,49 @@
       </c>
       <c r="D219">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="10"/>
-        <v>821-MMBT3904, 4</v>
+        <v>815-AWSCR-16.00MTD-T, 1</v>
       </c>
       <c r="I219" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>387</v>
+      </c>
+      <c r="B220" t="s">
+        <v>73</v>
       </c>
       <c r="C220">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>815-AWSCR-24.00MTD-T, 1</v>
       </c>
       <c r="I220" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>388</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
       </c>
       <c r="C221">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <f t="shared" si="9"/>
@@ -5299,19 +6699,22 @@
       </c>
       <c r="E221" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>81-LQG18HN47NJ00D, 4</v>
       </c>
       <c r="I221" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
       </c>
       <c r="C222">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222">
         <f t="shared" si="9"/>
@@ -5322,136 +6725,157 @@
         <v/>
       </c>
       <c r="I222" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>390</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
       </c>
       <c r="C223">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D223">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="10"/>
-        <v>821-TS4148-0805-RY, 7</v>
+        <v/>
       </c>
       <c r="I223" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>391</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
       </c>
       <c r="C224">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D224">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I224" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>392</v>
+      </c>
+      <c r="B225" t="s">
+        <v>34</v>
       </c>
       <c r="C225">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>821-MMBT3904, 4</v>
       </c>
       <c r="I225" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>393</v>
+      </c>
+      <c r="B226" t="s">
+        <v>34</v>
       </c>
       <c r="C226">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D226">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I226" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>394</v>
+      </c>
+      <c r="B227" t="s">
+        <v>34</v>
       </c>
       <c r="C227">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D227">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I227" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>395</v>
+      </c>
+      <c r="B228" t="s">
+        <v>34</v>
       </c>
       <c r="C228">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D228">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I228" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B229" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>396</v>
+      </c>
+      <c r="B229" t="s">
         <v>41</v>
       </c>
       <c r="C229">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D229">
         <f t="shared" si="9"/>
@@ -5459,175 +6883,202 @@
       </c>
       <c r="E229" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>821-TS4148-0805-RY, 7</v>
       </c>
       <c r="I229" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>397</v>
+      </c>
+      <c r="B230" t="s">
+        <v>41</v>
       </c>
       <c r="C230">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="10"/>
-        <v>863-LM317MBSTT3G, 1</v>
+        <v/>
       </c>
       <c r="I230" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>398</v>
+      </c>
+      <c r="B231" t="s">
+        <v>41</v>
       </c>
       <c r="C231">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="10"/>
-        <v>863-MC74HC126ADR2G, 1</v>
+        <v/>
       </c>
       <c r="I231" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>399</v>
+      </c>
+      <c r="B232" t="s">
+        <v>41</v>
       </c>
       <c r="C232">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D232">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="10"/>
-        <v>863-MMQA5V6T3G, 1</v>
+        <v/>
       </c>
       <c r="I232" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>400</v>
+      </c>
+      <c r="B233" t="s">
+        <v>41</v>
       </c>
       <c r="C233">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D233">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="10"/>
-        <v>863-MMSZ4678T1G, 1</v>
+        <v/>
       </c>
       <c r="I233" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>401</v>
+      </c>
+      <c r="B234" t="s">
+        <v>41</v>
       </c>
       <c r="C234">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D234">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="10"/>
-        <v>895-FT4232HL, 1</v>
+        <v/>
       </c>
       <c r="I234" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>402</v>
+      </c>
+      <c r="B235" t="s">
+        <v>41</v>
       </c>
       <c r="C235">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D235">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="10"/>
-        <v>942-IRF9335TRPBF, 3</v>
+        <v/>
       </c>
       <c r="I235" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B236" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>403</v>
+      </c>
+      <c r="B236" t="s">
+        <v>30</v>
       </c>
       <c r="C236">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>863-LM317MBSTT3G, 1</v>
       </c>
       <c r="I236" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>404</v>
+      </c>
+      <c r="B237" t="s">
+        <v>76</v>
       </c>
       <c r="C237">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>863-MC74HC126ADR2G, 1</v>
       </c>
       <c r="I237" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>405</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
       </c>
       <c r="C238">
         <f t="shared" si="11"/>
@@ -5635,119 +7086,137 @@
       </c>
       <c r="D238">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="10"/>
-        <v>963-LMK212B7475KG-T, 6</v>
+        <v>863-MMQA5V6T3G, 1</v>
       </c>
       <c r="I238" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>406</v>
+      </c>
+      <c r="B239" t="s">
+        <v>62</v>
       </c>
       <c r="C239">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>863-MMSZ4678T1G, 1</v>
       </c>
       <c r="I239" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>407</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
       </c>
       <c r="C240">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D240">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>895-FT4232HL, 1</v>
       </c>
       <c r="I240" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>408</v>
+      </c>
+      <c r="B241" t="s">
+        <v>58</v>
       </c>
       <c r="C241">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>942-IRF9335TRPBF, 3</v>
       </c>
       <c r="I241" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>409</v>
+      </c>
+      <c r="B242" t="s">
+        <v>58</v>
       </c>
       <c r="C242">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D242">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I242" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B243" s="2" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>410</v>
+      </c>
+      <c r="B243" t="s">
+        <v>58</v>
       </c>
       <c r="C243">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D243">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I243" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B244" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>411</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
       </c>
       <c r="C244">
         <f t="shared" si="11"/>
@@ -5755,19 +7224,157 @@
       </c>
       <c r="D244">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="10"/>
+        <v>963-LMK212B7475KG-T, 6</v>
+      </c>
+      <c r="I244" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>412</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" ref="C245:C250" si="12">IF(B245=B244,C244+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <f t="shared" ref="D245:D250" si="13">IF(C246&gt;C245,D246,C245)</f>
+        <v>6</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" ref="E245:E250" si="14">IF(B245&lt;&gt;B244,B245&amp;", "&amp;D245,"")</f>
+        <v/>
+      </c>
+      <c r="I245" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>413</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I246" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>414</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I247" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>415</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I248" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>416</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E249" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I249" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>417</v>
+      </c>
+      <c r="B250" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E250" t="str">
+        <f t="shared" si="14"/>
         <v>LM339ADR, 1</v>
       </c>
-      <c r="I244" t="s">
-        <v>87</v>
+      <c r="I250" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I2:I244">
-    <sortCondition descending="1" ref="I2"/>
+  <sortState ref="I2:I250">
+    <sortCondition descending="1" ref="I2:I250"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5779,7 +7386,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5791,7 +7398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
